--- a/src/Users.xlsx
+++ b/src/Users.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="9">
   <si>
     <t>username</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -43,6 +43,14 @@
   </si>
   <si>
     <t>李明成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bqj1234</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lmc1234</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -392,7 +400,7 @@
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -415,8 +423,8 @@
       <c r="A2" t="s">
         <v>4</v>
       </c>
-      <c r="B2">
-        <v>1234</v>
+      <c r="B2" t="s">
+        <v>7</v>
       </c>
       <c r="C2" t="s">
         <v>5</v>
@@ -429,8 +437,8 @@
       <c r="A3" t="s">
         <v>6</v>
       </c>
-      <c r="B3">
-        <v>1258</v>
+      <c r="B3" t="s">
+        <v>8</v>
       </c>
       <c r="C3" t="s">
         <v>5</v>

--- a/src/Users.xlsx
+++ b/src/Users.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="8">
   <si>
     <t>username</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -43,10 +43,6 @@
   </si>
   <si>
     <t>李明成</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bqj1234</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -400,7 +396,7 @@
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -423,8 +419,8 @@
       <c r="A2" t="s">
         <v>4</v>
       </c>
-      <c r="B2" t="s">
-        <v>7</v>
+      <c r="B2">
+        <v>1234</v>
       </c>
       <c r="C2" t="s">
         <v>5</v>
@@ -438,7 +434,7 @@
         <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C3" t="s">
         <v>5</v>

--- a/src/Users.xlsx
+++ b/src/Users.xlsx
@@ -396,7 +396,7 @@
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>

--- a/src/Users.xlsx
+++ b/src/Users.xlsx
@@ -396,10 +396,13 @@
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="4" max="4" width="17.375" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
@@ -426,7 +429,7 @@
         <v>5</v>
       </c>
       <c r="D2">
-        <v>1</v>
+        <v>18877510193</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.15">
@@ -440,7 +443,7 @@
         <v>5</v>
       </c>
       <c r="D3">
-        <v>2</v>
+        <v>18877510192</v>
       </c>
     </row>
   </sheetData>
